--- a/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
+++ b/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
@@ -95,13 +95,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>79.631294250488281</v>
+        <v>157.99317932128906</v>
       </c>
       <c r="C2" s="1">
-        <v>58.993988037109375</v>
+        <v>125.7869873046875</v>
       </c>
       <c r="D2" s="1">
-        <v>71.45343017578125</v>
+        <v>178.20623779296875</v>
       </c>
     </row>
     <row r="3">
@@ -109,13 +109,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>82.846138000488281</v>
+        <v>155.82958984375</v>
       </c>
       <c r="C3" s="1">
-        <v>60.809337615966797</v>
+        <v>124.86091613769531</v>
       </c>
       <c r="D3" s="1">
-        <v>83.346595764160156</v>
+        <v>164.02688598632812</v>
       </c>
     </row>
     <row r="4">
@@ -123,13 +123,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>80.882926940917969</v>
+        <v>143.07427978515625</v>
       </c>
       <c r="C4" s="1">
-        <v>60.849075317382812</v>
+        <v>115.37957000732422</v>
       </c>
       <c r="D4" s="1">
-        <v>72.007164001464844</v>
+        <v>115.55076599121094</v>
       </c>
     </row>
     <row r="5">
@@ -137,13 +137,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>68.658042907714844</v>
+        <v>106.56877899169922</v>
       </c>
       <c r="C5" s="1">
-        <v>50.121318817138672</v>
+        <v>82.403427124023438</v>
       </c>
       <c r="D5" s="1">
-        <v>48.676322937011719</v>
+        <v>83.161460876464844</v>
       </c>
     </row>
     <row r="6">
@@ -151,13 +151,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>63.655872344970703</v>
+        <v>73.829940795898438</v>
       </c>
       <c r="C6" s="1">
-        <v>42.675712585449219</v>
+        <v>56.849784851074219</v>
       </c>
       <c r="D6" s="1">
-        <v>37.436042785644531</v>
+        <v>58.762687683105469</v>
       </c>
     </row>
     <row r="7">
@@ -165,13 +165,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>63.369052886962891</v>
+        <v>86.957679748535156</v>
       </c>
       <c r="C7" s="1">
-        <v>46.551906585693359</v>
+        <v>74.721038818359375</v>
       </c>
       <c r="D7" s="1">
-        <v>62.039958953857422</v>
+        <v>68.752616882324219</v>
       </c>
     </row>
     <row r="8">
@@ -179,13 +179,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47.330078125</v>
+        <v>60.848789215087891</v>
       </c>
       <c r="C8" s="1">
-        <v>33.451381683349609</v>
+        <v>45.464023590087891</v>
       </c>
       <c r="D8" s="1">
-        <v>35.402153015136719</v>
+        <v>45.524852752685547</v>
       </c>
     </row>
     <row r="9">
@@ -193,13 +193,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>26.318382263183594</v>
+        <v>36.029842376708984</v>
       </c>
       <c r="C9" s="1">
-        <v>15.478214263916016</v>
+        <v>24.144414901733398</v>
       </c>
       <c r="D9" s="1">
-        <v>25.532289505004883</v>
+        <v>27.423494338989258</v>
       </c>
     </row>
     <row r="10">
@@ -207,13 +207,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>12.05911922454834</v>
+        <v>63.9493408203125</v>
       </c>
       <c r="C10" s="1">
-        <v>9.7826204299926758</v>
+        <v>37.063934326171875</v>
       </c>
       <c r="D10" s="1">
-        <v>29.834634780883789</v>
+        <v>106.04655456542969</v>
       </c>
     </row>
     <row r="11">
@@ -221,13 +221,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>26.025810241699219</v>
+        <v>98.224143981933594</v>
       </c>
       <c r="C11" s="1">
-        <v>18.186698913574219</v>
+        <v>48.242099761962891</v>
       </c>
       <c r="D11" s="1">
-        <v>59.425758361816406</v>
+        <v>181.63600158691406</v>
       </c>
     </row>
     <row r="12">
@@ -235,13 +235,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>35.446285247802734</v>
+        <v>91.612655639648438</v>
       </c>
       <c r="C12" s="1">
-        <v>12.608890533447266</v>
+        <v>31.008481979370117</v>
       </c>
       <c r="D12" s="1">
-        <v>51.145915985107422</v>
+        <v>129.87026977539062</v>
       </c>
     </row>
   </sheetData>

--- a/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
+++ b/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
@@ -95,13 +95,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>157.99317932128906</v>
+        <v>82.175384521484375</v>
       </c>
       <c r="C2" s="1">
-        <v>125.7869873046875</v>
+        <v>65.061141967773438</v>
       </c>
       <c r="D2" s="1">
-        <v>178.20623779296875</v>
+        <v>95.055953979492188</v>
       </c>
     </row>
     <row r="3">
@@ -109,13 +109,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>155.82958984375</v>
+        <v>77.066902160644531</v>
       </c>
       <c r="C3" s="1">
-        <v>124.86091613769531</v>
+        <v>61.021018981933594</v>
       </c>
       <c r="D3" s="1">
-        <v>164.02688598632812</v>
+        <v>84.022918701171875</v>
       </c>
     </row>
     <row r="4">
@@ -123,13 +123,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>143.07427978515625</v>
+        <v>73.190773010253906</v>
       </c>
       <c r="C4" s="1">
-        <v>115.37957000732422</v>
+        <v>58.289695739746094</v>
       </c>
       <c r="D4" s="1">
-        <v>115.55076599121094</v>
+        <v>63.010562896728516</v>
       </c>
     </row>
     <row r="5">
@@ -137,13 +137,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>106.56877899169922</v>
+        <v>50.509803771972656</v>
       </c>
       <c r="C5" s="1">
-        <v>82.403427124023438</v>
+        <v>38.744205474853516</v>
       </c>
       <c r="D5" s="1">
-        <v>83.161460876464844</v>
+        <v>40.466133117675781</v>
       </c>
     </row>
     <row r="6">
@@ -151,13 +151,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>73.829940795898438</v>
+        <v>36.241809844970703</v>
       </c>
       <c r="C6" s="1">
-        <v>56.849784851074219</v>
+        <v>28.718009948730469</v>
       </c>
       <c r="D6" s="1">
-        <v>58.762687683105469</v>
+        <v>31.176292419433594</v>
       </c>
     </row>
     <row r="7">
@@ -165,13 +165,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>86.957679748535156</v>
+        <v>44.5875244140625</v>
       </c>
       <c r="C7" s="1">
-        <v>74.721038818359375</v>
+        <v>39.516185760498047</v>
       </c>
       <c r="D7" s="1">
-        <v>68.752616882324219</v>
+        <v>39.446125030517578</v>
       </c>
     </row>
     <row r="8">
@@ -179,13 +179,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>60.848789215087891</v>
+        <v>36.747631072998047</v>
       </c>
       <c r="C8" s="1">
-        <v>45.464023590087891</v>
+        <v>28.855743408203125</v>
       </c>
       <c r="D8" s="1">
-        <v>45.524852752685547</v>
+        <v>38.189437866210938</v>
       </c>
     </row>
     <row r="9">
@@ -193,13 +193,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>36.029842376708984</v>
+        <v>31.101720809936523</v>
       </c>
       <c r="C9" s="1">
-        <v>24.144414901733398</v>
+        <v>21.499444961547852</v>
       </c>
       <c r="D9" s="1">
-        <v>27.423494338989258</v>
+        <v>30.954399108886719</v>
       </c>
     </row>
     <row r="10">
@@ -207,13 +207,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>63.9493408203125</v>
+        <v>86.664352416992188</v>
       </c>
       <c r="C10" s="1">
-        <v>37.063934326171875</v>
+        <v>48.051910400390625</v>
       </c>
       <c r="D10" s="1">
-        <v>106.04655456542969</v>
+        <v>140.38107299804688</v>
       </c>
     </row>
     <row r="11">
@@ -221,13 +221,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>98.224143981933594</v>
+        <v>137.78962707519531</v>
       </c>
       <c r="C11" s="1">
-        <v>48.242099761962891</v>
+        <v>62.502063751220703</v>
       </c>
       <c r="D11" s="1">
-        <v>181.63600158691406</v>
+        <v>218.33613586425781</v>
       </c>
     </row>
     <row r="12">
@@ -235,13 +235,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>91.612655639648438</v>
+        <v>36.068157196044922</v>
       </c>
       <c r="C12" s="1">
-        <v>31.008481979370117</v>
+        <v>11.378140449523926</v>
       </c>
       <c r="D12" s="1">
-        <v>129.87026977539062</v>
+        <v>54.614810943603516</v>
       </c>
     </row>
   </sheetData>

--- a/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
+++ b/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
@@ -13,18 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2" uniqueCount="2">
   <si>
     <t>h</t>
   </si>
   <si>
-    <t>mae100</t>
-  </si>
-  <si>
     <t>rmse100</t>
-  </si>
-  <si>
-    <t>mape100</t>
   </si>
 </sst>
 </file>
@@ -70,7 +64,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -83,25 +77,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>82.175384521484375</v>
-      </c>
-      <c r="C2" s="1">
-        <v>65.061141967773438</v>
-      </c>
-      <c r="D2" s="1">
-        <v>95.055953979492188</v>
+        <v>148.39120483398438</v>
       </c>
     </row>
     <row r="3">
@@ -109,13 +91,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>77.066902160644531</v>
-      </c>
-      <c r="C3" s="1">
-        <v>61.021018981933594</v>
-      </c>
-      <c r="D3" s="1">
-        <v>84.022918701171875</v>
+        <v>143.82656860351562</v>
       </c>
     </row>
     <row r="4">
@@ -123,13 +99,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>73.190773010253906</v>
-      </c>
-      <c r="C4" s="1">
-        <v>58.289695739746094</v>
-      </c>
-      <c r="D4" s="1">
-        <v>63.010562896728516</v>
+        <v>127.17751312255859</v>
       </c>
     </row>
     <row r="5">
@@ -137,13 +107,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>50.509803771972656</v>
-      </c>
-      <c r="C5" s="1">
-        <v>38.744205474853516</v>
-      </c>
-      <c r="D5" s="1">
-        <v>40.466133117675781</v>
+        <v>87.526031494140625</v>
       </c>
     </row>
     <row r="6">
@@ -151,13 +115,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>36.241809844970703</v>
-      </c>
-      <c r="C6" s="1">
-        <v>28.718009948730469</v>
-      </c>
-      <c r="D6" s="1">
-        <v>31.176292419433594</v>
+        <v>47.085796356201172</v>
       </c>
     </row>
     <row r="7">
@@ -165,13 +123,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44.5875244140625</v>
-      </c>
-      <c r="C7" s="1">
-        <v>39.516185760498047</v>
-      </c>
-      <c r="D7" s="1">
-        <v>39.446125030517578</v>
+        <v>68.021408081054688</v>
       </c>
     </row>
     <row r="8">
@@ -179,13 +131,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>36.747631072998047</v>
-      </c>
-      <c r="C8" s="1">
-        <v>28.855743408203125</v>
-      </c>
-      <c r="D8" s="1">
-        <v>38.189437866210938</v>
+        <v>44.554885864257812</v>
       </c>
     </row>
     <row r="9">
@@ -193,13 +139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>31.101720809936523</v>
-      </c>
-      <c r="C9" s="1">
-        <v>21.499444961547852</v>
-      </c>
-      <c r="D9" s="1">
-        <v>30.954399108886719</v>
+        <v>20.84794807434082</v>
       </c>
     </row>
     <row r="10">
@@ -207,13 +147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86.664352416992188</v>
-      </c>
-      <c r="C10" s="1">
-        <v>48.051910400390625</v>
-      </c>
-      <c r="D10" s="1">
-        <v>140.38107299804688</v>
+        <v>55.5565185546875</v>
       </c>
     </row>
     <row r="11">
@@ -221,13 +155,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>137.78962707519531</v>
-      </c>
-      <c r="C11" s="1">
-        <v>62.502063751220703</v>
-      </c>
-      <c r="D11" s="1">
-        <v>218.33613586425781</v>
+        <v>97.905319213867188</v>
       </c>
     </row>
     <row r="12">
@@ -235,13 +163,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>36.068157196044922</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11.378140449523926</v>
-      </c>
-      <c r="D12" s="1">
-        <v>54.614810943603516</v>
+        <v>53.46929931640625</v>
       </c>
     </row>
   </sheetData>

--- a/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
+++ b/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
@@ -83,7 +83,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>148.39120483398438</v>
+        <v>41.364051818847656</v>
       </c>
     </row>
     <row r="3">
@@ -91,7 +91,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>143.82656860351562</v>
+        <v>37.248386383056641</v>
       </c>
     </row>
     <row r="4">
@@ -99,7 +99,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>127.17751312255859</v>
+        <v>18.59356689453125</v>
       </c>
     </row>
     <row r="5">
@@ -107,7 +107,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>87.526031494140625</v>
+        <v>7.5408868789672852</v>
       </c>
     </row>
     <row r="6">
@@ -115,7 +115,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>47.085796356201172</v>
+        <v>6.0619406700134277</v>
       </c>
     </row>
     <row r="7">
@@ -123,7 +123,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>68.021408081054688</v>
+        <v>14.847681045532227</v>
       </c>
     </row>
     <row r="8">
@@ -131,7 +131,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44.554885864257812</v>
+        <v>20.680257797241211</v>
       </c>
     </row>
     <row r="9">
@@ -139,7 +139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>20.84794807434082</v>
+        <v>7.4842095375061035</v>
       </c>
     </row>
     <row r="10">
@@ -147,7 +147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>55.5565185546875</v>
+        <v>32.345989227294922</v>
       </c>
     </row>
     <row r="11">
@@ -155,7 +155,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>97.905319213867188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -163,7 +163,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>53.46929931640625</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
+++ b/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
@@ -83,7 +83,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>41.364051818847656</v>
+        <v>110.68733978271484</v>
       </c>
     </row>
     <row r="3">
@@ -91,7 +91,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>37.248386383056641</v>
+        <v>107.13040924072266</v>
       </c>
     </row>
     <row r="4">
@@ -99,7 +99,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>18.59356689453125</v>
+        <v>104.14569091796875</v>
       </c>
     </row>
     <row r="5">
@@ -107,7 +107,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7.5408868789672852</v>
+        <v>101.14502716064453</v>
       </c>
     </row>
     <row r="6">
@@ -115,7 +115,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>6.0619406700134277</v>
+        <v>101.46086120605469</v>
       </c>
     </row>
     <row r="7">
@@ -123,7 +123,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>14.847681045532227</v>
+        <v>101.52155303955078</v>
       </c>
     </row>
     <row r="8">
@@ -131,7 +131,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>20.680257797241211</v>
+        <v>99.152023315429688</v>
       </c>
     </row>
     <row r="9">
@@ -139,7 +139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>7.4842095375061035</v>
+        <v>99.53228759765625</v>
       </c>
     </row>
     <row r="10">
@@ -147,7 +147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>32.345989227294922</v>
+        <v>124.6224365234375</v>
       </c>
     </row>
     <row r="11">
@@ -155,7 +155,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>149.14256286621094</v>
       </c>
     </row>
     <row r="12">
@@ -163,7 +163,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>116.40653991699219</v>
       </c>
     </row>
   </sheetData>

--- a/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
+++ b/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
@@ -83,7 +83,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>110.68733978271484</v>
+        <v>85.8046875</v>
       </c>
     </row>
     <row r="3">
@@ -91,7 +91,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>107.13040924072266</v>
+        <v>86.504852294921875</v>
       </c>
     </row>
     <row r="4">
@@ -99,7 +99,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>104.14569091796875</v>
+        <v>84.671028137207031</v>
       </c>
     </row>
     <row r="5">
@@ -107,7 +107,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>101.14502716064453</v>
+        <v>93.787605285644531</v>
       </c>
     </row>
     <row r="6">
@@ -115,7 +115,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>101.46086120605469</v>
+        <v>96.509185791015625</v>
       </c>
     </row>
     <row r="7">
@@ -123,7 +123,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>101.52155303955078</v>
+        <v>93.883811950683594</v>
       </c>
     </row>
     <row r="8">
@@ -131,7 +131,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>99.152023315429688</v>
+        <v>97.242012023925781</v>
       </c>
     </row>
     <row r="9">
@@ -139,7 +139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>99.53228759765625</v>
+        <v>99.411849975585938</v>
       </c>
     </row>
     <row r="10">
@@ -147,7 +147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>124.6224365234375</v>
+        <v>99.504592895507812</v>
       </c>
     </row>
     <row r="11">
@@ -155,7 +155,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>149.14256286621094</v>
+        <v>99.725357055664062</v>
       </c>
     </row>
     <row r="12">
@@ -163,7 +163,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>116.40653991699219</v>
+        <v>99.830368041992188</v>
       </c>
     </row>
   </sheetData>

--- a/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
+++ b/gdp_revisions_analysis_jefas/input/data/nowcasting_rel_perf.xlsx
@@ -83,7 +83,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>85.8046875</v>
+        <v>89.933845520019531</v>
       </c>
     </row>
     <row r="3">
@@ -91,7 +91,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>86.504852294921875</v>
+        <v>87.274131774902344</v>
       </c>
     </row>
     <row r="4">
@@ -99,7 +99,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>84.671028137207031</v>
+        <v>91.155021667480469</v>
       </c>
     </row>
     <row r="5">
@@ -107,7 +107,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>93.787605285644531</v>
+        <v>92.403213500976562</v>
       </c>
     </row>
     <row r="6">
@@ -115,7 +115,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>96.509185791015625</v>
+        <v>100.34432220458984</v>
       </c>
     </row>
     <row r="7">
@@ -123,7 +123,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>93.883811950683594</v>
+        <v>100.99150085449219</v>
       </c>
     </row>
     <row r="8">
@@ -131,7 +131,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>97.242012023925781</v>
+        <v>95.411331176757812</v>
       </c>
     </row>
     <row r="9">
@@ -139,7 +139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>99.411849975585938</v>
+        <v>99.457733154296875</v>
       </c>
     </row>
     <row r="10">
@@ -147,7 +147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>99.504592895507812</v>
+        <v>115.80441284179688</v>
       </c>
     </row>
     <row r="11">
@@ -155,7 +155,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>99.725357055664062</v>
+        <v>122.04225921630859</v>
       </c>
     </row>
     <row r="12">
@@ -163,7 +163,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>99.830368041992188</v>
+        <v>106.31224822998047</v>
       </c>
     </row>
   </sheetData>
